--- a/results/CV/2023/2_category/report_df.xlsx
+++ b/results/CV/2023/2_category/report_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan_R\OneDrive\Desktop\REPO\TS_ANALYSIS\results\CV\2023\2_category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C9760-AA9D-424B-90F7-BAA66E470733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257A83DA-89DD-414B-BD4C-3466D8048B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="3345" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,17 +432,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,7 +482,7 @@
         <v>98830</v>
       </c>
       <c r="E2" s="3">
-        <v>44927.319444444453</v>
+        <v>44995.910416666673</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -500,13 +499,13 @@
         <v>98830</v>
       </c>
       <c r="C3" s="3">
-        <v>44927.319444444453</v>
+        <v>44995.910416666673</v>
       </c>
       <c r="D3" s="2">
         <v>204764</v>
       </c>
       <c r="E3" s="3">
-        <v>44927.548611111109</v>
+        <v>45069.475694444453</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -523,13 +522,13 @@
         <v>204764</v>
       </c>
       <c r="C4" s="3">
-        <v>44927.548611111109</v>
+        <v>45069.475694444453</v>
       </c>
       <c r="D4" s="2">
         <v>327685</v>
       </c>
       <c r="E4" s="3">
-        <v>44927.695833333331</v>
+        <v>45154.837500000001</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -546,13 +545,13 @@
         <v>327685</v>
       </c>
       <c r="C5" s="3">
-        <v>44927.695833333331</v>
+        <v>45154.837500000001</v>
       </c>
       <c r="D5" s="2">
         <v>436706</v>
       </c>
       <c r="E5" s="3">
-        <v>44927.829861111109</v>
+        <v>45230.546527777777</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
